--- a/biology/Biochimie/Acide_biliaire/Acide_biliaire.xlsx
+++ b/biology/Biochimie/Acide_biliaire/Acide_biliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les acides biliaires (également connus sous le nom de sels biliaires) sont formés par des dérivés du cholestérol[1] et par des stéroïdes acides sécrétés par le foie et se trouvent principalement dans la bile des mammifères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les acides biliaires (également connus sous le nom de sels biliaires) sont formés par des dérivés du cholestérol et par des stéroïdes acides sécrétés par le foie et se trouvent principalement dans la bile des mammifères.
 Ils permettent la fragmentation des gros globules de lipides alimentaires, conduisant ainsi à la formation de microgoutelettes. Cette émulsion facilite alors la digestion des lipides par la lipase pancréatique.
 Leur deuxième rôle est d'inhiber (par effet antiseptique voire antibiotique) la prolifération des bactéries de la flore intestinale dans la partie haute de l'appareil digestif. Certaines bactéries pathogènes (telles que Salmonella enterica) ont développé des résistances aux sels biliaires.
 Chez l'homme, l'acide taurocholique et l'acide glycocholique (dérivés de l'acide cholique) représentent environ 80 % de tous les acides biliaires. Les deux principaux acides biliaires sont l'acide cholique et l'acide chénodésoxycholique. Leur glycine et leur taurine, ainsi que leurs dérivés de 7-alpha-déshydroxylé (acide désoxycholique et acide lithocholique (en)) se trouvent dans la bile intestinale humaine. Une augmentation de l'écoulement de la bile est corrélée à une augmentation de la sécrétion d'acides biliaires. Les acides biliaires ont comme fonction principale de faciliter la formation de micelles, ce qui favorise l'absorption des graisses alimentaires.
@@ -514,7 +526,9 @@
           <t>Production et sécrétion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acides biliaires sont produits dans le foie par l'oxydation du cholestérol. Ils sont conjugués avec de la taurine ou de la glycine, ou encore avec un sulfate ou un glucuronide, et sont ensuite stockés dans la vésicule biliaire. Les acides biliaires ont également pour but de briser les graisses. Lors d'un repas contenant des matières grasses, le contenu de la vésicule biliaire est sécrété dans l'intestin. Chez l'homme, l'étape limitant le taux est l'ajout d'un groupe hydroxyle sur la position 7 du noyau stéroïde par la cholestérol 7-alpha hydroxylase. Les acides biliaires ont de multiples fonctions, notamment : l'élimination du cholestérol de l'organisme ; faire que le flux de bile va éliminer des catabolites du foie, des lipides émulsifiants et des vitamines liposolubles dans l'intestin ; aider à la réduction de la flore de bactéries trouvé dans l'intestin grêle et les voies biliaires. 
 Le terme acides biliaires se réfère à la forme conjuguée. Dans le milieu alcalin du duodénum, les acides biliaires peuvent devenir des sels biliaires à la suite de la baisse de pH et du pKa des acides. Sels biliaires se réfère à la forme ionique de la sécrétion d'acides biliaires. 
@@ -547,7 +561,9 @@
           <t>Différents types chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sels biliaires constituent une grande famille de molécules. Ces dernières sont composées d'une structure stéroïde à quatre cycles, de cinq ou huit carbones, d'un acide carboxylique qui met fin à la chaîne, et de groupements hydroxyle. Les quatre anneaux sont marqués de gauche à droite: A, B, C et D, le D-anneau est plus petit d'un carbone que les trois autres. Les groupes hydroxyle ont le choix d'être en 2 positions, l'une (ou les) appelé bêta, ou vers le bas, appelée alpha. Tous les acides biliaires ont un groupe hydroxyle sur la position 3, qui a été dérivée de la molécule mère, le cholestérol. Dans le cholestérol, les 4 anneaux de stéroïdes sont plats et la position de la 3-hydroxy est bêta.
 Dans de nombreuses espèces, la première étape dans la formation d'un acide biliaire est l'ajout d'un groupe 7-alpha-hydroxy. La suite, dans la transformation à partir du cholestérol d'un acide biliaire, est la jonction entre les deux premiers anneaux stéroïdes (A et B), qui est modifié, ce qui rend la molécule courbée, et dans ce processus, le 3-hydroxy est converti à l'orientation alpha.Ainsi, la valeur par défaut la plus simple des acides biliaires (de 24 atomes de carbone) présente deux groupes hydroxyles dans les positions 3-alpha et 7-alpha. Le nom chimique de ce composé est de 3-alpha-alpha, acide 7-dihydroxy-5-beta-cholane-24-OCI, ou comme il est connu sous le nom d'acide chénodésoxycholique. Cette bile acide a été isolé pour la première fois de l'oie domestique.
@@ -585,9 +601,11 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les agents de surface ou les détergents, les acides biliaires sont relativement toxiques pour les cellules et leur niveau est étroitement régulé. Elles fonctionnent directement en tant que molécules de signalisation dans le foie et l'intestin par activation d'un récepteur nucléaire connu sous le nom de FXR (également connu sous le nom de gènes NR1H4[2]). Il en résulte l'inhibition de la synthèse des acides biliaires dans le foie lorsque leurs niveaux sont trop élevés.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les agents de surface ou les détergents, les acides biliaires sont relativement toxiques pour les cellules et leur niveau est étroitement régulé. Elles fonctionnent directement en tant que molécules de signalisation dans le foie et l'intestin par activation d'un récepteur nucléaire connu sous le nom de FXR (également connu sous le nom de gènes NR1H4). Il en résulte l'inhibition de la synthèse des acides biliaires dans le foie lorsque leurs niveaux sont trop élevés.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Signification et intérêt clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant donné que les acides biliaires sont fabriqués à partir de cholestérol endogène, un moyen d'abaisser le taux de cholestérol est de bloquer la circulation entérique des acides biliaires. C'est le mécanisme d'action des séquestrants des acides biliaires. Les séquestrants des acides biliaires se lient aux acides biliaires dans l'intestin, empêchant leur réintégration. Ainsi l'organisme synthétise de nouveaux acides biliaires en puisant dans les réserves de cholestérol. Les séquestrants des acides biliaires sont ensuite excrétés dans les fèces.
 </t>
@@ -647,10 +667,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un gel de sels de sucrose-Thiosulfate-citrate biliaires a été utilisé pour lutter contre les éclosions d'étoile de mer Acanthaster planci là où elles sont devenues une menace pour les récifs coralliens. Une simple injection tue l'animal en 24 heures, après des symptômes qui sont "une peau décolorée et nécrotique, des ulcérations, une perte de turgescence, une accumulation de mucus incolore sur de nombreuses épines (surtout à leur extrémité), et la perte d'épines. Ce produit traverse la surface de la peau et provoque de grandes plaies ouvertes qui exposent les organes internes. Ces plaies semblent liée à une infection par des Vibrio, symbiotes de l'espèce mais qui se mettent à pulluler[3]. Cette maladie induite par l'injection est contagieuse pour les autres étoiles de mer de la même espèce. 
-C'est le poison qui a été choisi pour permettre à un robot subaquatique ("RangerBot", cofinancé par Google et présenté en aout 2018) pour tuer par injection dans les récifs coralliens les Acanthaster planci (une espèce invasive d'étoile de mer qui tue les coraux)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un gel de sels de sucrose-Thiosulfate-citrate biliaires a été utilisé pour lutter contre les éclosions d'étoile de mer Acanthaster planci là où elles sont devenues une menace pour les récifs coralliens. Une simple injection tue l'animal en 24 heures, après des symptômes qui sont "une peau décolorée et nécrotique, des ulcérations, une perte de turgescence, une accumulation de mucus incolore sur de nombreuses épines (surtout à leur extrémité), et la perte d'épines. Ce produit traverse la surface de la peau et provoque de grandes plaies ouvertes qui exposent les organes internes. Ces plaies semblent liée à une infection par des Vibrio, symbiotes de l'espèce mais qui se mettent à pulluler. Cette maladie induite par l'injection est contagieuse pour les autres étoiles de mer de la même espèce. 
+C'est le poison qui a été choisi pour permettre à un robot subaquatique ("RangerBot", cofinancé par Google et présenté en aout 2018) pour tuer par injection dans les récifs coralliens les Acanthaster planci (une espèce invasive d'étoile de mer qui tue les coraux).
 </t>
         </is>
       </c>
